--- a/data/Negrete.xlsx
+++ b/data/Negrete.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Pozo Gallegos</t>
+          <t>Extracción de Áridos Sector Avaria</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -443,21 +443,21 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03/02/2022</t>
+          <t>08/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154861605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155347956&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Extracción de áridos Pozo Gallegos</t>
+          <t>Extracción de Áridos Pozo Gallegos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10/05/2021</t>
+          <t>03/02/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151709292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154861605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>14/09/2020</t>
+          <t>10/05/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148231091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151709292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Regularización Ambiental Planta de Granos</t>
+          <t>Extracción de áridos Pozo Gallegos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Collipulli Red Soil S.A</t>
+          <t>Sociedad Concesionaria Ruta Nahuelbuta S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>14/07/2020</t>
+          <t>14/09/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147380023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148231091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>26/06/2020</t>
+          <t>14/07/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147076969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147380023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Instalación de tres aerogeneradores en fundo Las Marías</t>
+          <t>Regularización Ambiental Planta de Granos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Windkraft Uno Chile SpA</t>
+          <t>Collipulli Red Soil S.A</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>21/11/2018</t>
+          <t>26/06/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141868869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147076969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,12 +712,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Eólico Entre Ríos</t>
+          <t>Instalación de tres aerogeneradores en fundo Las Marías</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NR Entre Ríos SpA</t>
+          <t>Windkraft Uno Chile SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>497000</v>
+        <v>17000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>05/06/2018</t>
+          <t>21/11/2018</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139246650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141868869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,40 +760,40 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Parque Eólico Entre Ríos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>NR Entre Ríos SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>9903</v>
+        <v>497000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>05/06/2018</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139246650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Eficiencias y mejoras operacionales Planta Pacífico</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CMPC Celulosa S.A</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>9903</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/04/2018</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138982907&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Proyecto Eólico Coihue</t>
+          <t>Eficiencias y mejoras operacionales Planta Pacífico</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Parque Eólico Coihue SPA</t>
+          <t>CMPC Celulosa S.A</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23/10/2017</t>
+          <t>23/04/2018</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132818524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138982907&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de Clorato de Sodio entre la región del Biobío y de la Araucanía</t>
+          <t>Proyecto Eólico Coihue</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,20 +914,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Comercial e Industrial Erco Chile Ltda.</t>
+          <t>Parque Eólico Coihue SPA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>03/11/2016</t>
+          <t>23/10/2017</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131858199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132818524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque Eólico La Esperanza II</t>
+          <t>Transporte Ferroviario de Clorato de Sodio entre la región del Biobío y de la Araucanía</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,20 +962,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Eólica La Esperanza S.A.</t>
+          <t>Comercial e Industrial Erco Chile Ltda.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>24/08/2016</t>
+          <t>03/11/2016</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131708431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131858199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Parque Eólico La Esperanza II</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,20 +1010,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Eólica La Esperanza S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>24/08/2016</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131708431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque Eólico Buenaventura</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Eólica La Esperanza S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>22/04/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131347850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque Eólico Rihue</t>
+          <t>Parque Eólico Buenaventura</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Eólica La Esperanza S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>290000</v>
+        <v>35000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20/11/2015</t>
+          <t>22/04/2016</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130924439&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131347850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Parque Eólico La Esperanza</t>
+          <t>Parque Eólico Rihue</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Eólica La Esperanza S.A.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>25000</v>
+        <v>290000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>18/02/2015</t>
+          <t>20/11/2015</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130244371&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130924439&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Parque Eólico La Esperanza</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,20 +1202,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Eólica La Esperanza S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>25000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>18/02/2015</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130244371&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>6750</v>
+        <v>10</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1200</v>
+        <v>6750</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Parque Eólico La Flor</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sociedad Vientos de Renaico SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>54000</v>
+        <v>1200</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128951114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO NEGRETE</t>
+          <t>Parque Eólico La Flor</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,20 +1394,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>wpd Negrete SPA</t>
+          <t>Sociedad Vientos de Renaico SpA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>48000</v>
+        <v>54000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>19/12/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128951039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128951114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>PARQUE EÓLICO NEGRETE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>wpd Negrete SPA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>250</v>
+        <v>48000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>19/12/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128951039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>706</v>
+        <v>250</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>706</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1650</v>
+        <v>100</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1787,21 +1787,21 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Planta Recicladora de Baterías Vyhmeister</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Sociedad Vyhmeister y Cía Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>07/07/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5754806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Planta Recuperadora de Baterías - Vyhmeister</t>
+          <t>Planta Recicladora de Baterías Vyhmeister</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>07/07/2011</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5361261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5754806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>10/02/2011</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5342367&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5361261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Negrete</t>
+          <t>Planta Recuperadora de Baterías - Vyhmeister</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Negrete</t>
+          <t>Sociedad Vyhmeister y Cía Ltda.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>10/02/2011</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4918716&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5342367&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Modificación Plan Regulador Comunal de Negrete</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Ilustre Municipalidad de Negrete</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4918716&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1350</v>
+        <v>300</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Planta de Biogás a Partir de Purines del Centro Educacional Agroalimentario, Negrete (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Corporación Servicio Evangélico para el Desarrollo (SEPADE)</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>185</v>
+        <v>377</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>02/09/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4015845&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Planta de Biogás a Partir de Purines del Centro Educacional Agroalimentario, Negrete (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Corporación Servicio Evangélico para el Desarrollo (SEPADE)</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>02/09/2009</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4015845&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DIA Transporte Ferroviario de Petróleo desde Talcahuano hasta Mininco, Regiones del Bío Bío y La Araucanía (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>TRANSAP S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>15/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3789791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2415,17 +2415,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>22/04/2009</t>
+          <t>15/05/2009</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3716506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3789791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>DIA Transporte Ferroviario de Petróleo desde Talcahuano hasta Mininco, Regiones del Bío Bío y La Araucanía (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>TRANSAP S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>22/04/2009</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3716506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1650</v>
+        <v>300</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2559,17 +2559,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PLANTA PILOTO DE BIOGÁS PARA EL TRATAMIENTO DE PURINES DE ESTABLOS LECHEROS DEL LICEO AGRÍCOLA DE NEGRETE VIII REGIÓN DEL BIO-BIO CHILE (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,20 +2690,20 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Corporación Servicio Evangélico para el Desarrollo (SEPADE)</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>10/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2375626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>PLANTA PILOTO DE BIOGÁS PARA EL TRATAMIENTO DE PURINES DE ESTABLOS LECHEROS DEL LICEO AGRÍCOLA DE NEGRETE VIII REGIÓN DEL BIO-BIO CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,20 +2738,20 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Corporación Servicio Evangélico para el Desarrollo (SEPADE)</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>10/09/2007</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2375626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2847,17 +2847,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>26/02/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
+          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2943,17 +2943,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>14/02/2007</t>
+          <t>26/02/2007</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>14/02/2007</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3087,17 +3087,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Clorato de Sodio a las Plantas de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1422307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Clorato de Sodio a las Plantas de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1422307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3327,17 +3327,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento Aguas Servidas Negrete (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,20 +3506,20 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1152529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Planta de Tratamiento Aguas Servidas Negrete (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,20 +3554,20 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>3517</v>
+        <v>1350</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1152529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de Soda Cáustica desde Oxy-Chile en Talcahuano, hasta las Plantas Laja, Santa Fe y Pacífico de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>TRANSAP S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>30/09/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1044218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Optimización Operacional de Planta Pacífico, Mininco (e-seia)</t>
+          <t>Transporte Ferroviario de Soda Cáustica desde Oxy-Chile en Talcahuano, hasta las Plantas Laja, Santa Fe y Pacífico de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>TRANSAP S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>22/09/2005</t>
+          <t>30/09/2005</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1029995&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1044218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Optimización Operacional de Planta Pacífico, Mininco (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>22/09/2005</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1029995&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Áridos Río Biobío, Sector Fundo El Sauce (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,20 +3794,20 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Forestal Mininco SpA.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1285</v>
+        <v>200</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>08/08/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=962410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento Aguas Servidas Negrete (e-seia)</t>
+          <t>Extracción Mecanizada de Áridos Río Biobío, Sector Fundo El Sauce (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
+          <t>Forestal Mininco SpA.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>670</v>
+        <v>1285</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>29/06/2005</t>
+          <t>08/08/2005</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=905910&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=962410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Planta de Tratamiento Aguas Servidas Negrete (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>200</v>
+        <v>670</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>29/06/2005</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=905910&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -3999,17 +3999,17 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>"Extracción y Plantas de Procesamiento de Áridos. Sector El Sauce. Octava Región". (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,20 +4130,20 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Forestal Mininco SpA.</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>29/04/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=338410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Planta Laminadora y Aserradero - Negrete (e-seia)</t>
+          <t>"Extracción y Plantas de Procesamiento de Áridos. Sector El Sauce. Octava Región". (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Borver Ltda.</t>
+          <t>Forestal Mininco SpA.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>22/01/2004</t>
+          <t>29/04/2004</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=254749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=338410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Abastecimiento de Gas Natural Sector Industrial Mininco (e-seia)</t>
+          <t>Planta Laminadora y Aserradero - Negrete (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,20 +4226,20 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Innergy Transportes S.A.</t>
+          <t>Borver Ltda.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>06/01/2004</t>
+          <t>22/01/2004</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=231576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=254749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Planta Laminadora y Aserradero - Negrete (e-seia)</t>
+          <t>Abastecimiento de Gas Natural Sector Industrial Mininco (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Borver Ltda.</t>
+          <t>Innergy Transportes S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>15/12/2003</t>
+          <t>06/01/2004</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=223076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=231576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Modificación al transporte de productos químicos entre Plantas Santa Fe y Laja (e-seia)</t>
+          <t>Planta Laminadora y Aserradero - Negrete (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Borver Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>14/05/2003</t>
+          <t>15/12/2003</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=223076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Construcción de Terminal de Buses Comuna de Negrete</t>
+          <t>Modificación al transporte de productos químicos entre Plantas Santa Fe y Laja (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,26 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Octava</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr"/>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>CMPC Pulp SpA</t>
+        </is>
+      </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>30/01/2003</t>
+          <t>14/05/2003</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4404,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Mininco-Nacimiento (e-seia)</t>
+          <t>Construcción de Terminal de Buses Comuna de Negrete</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4414,30 +4418,26 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>CMPC Pulp SpA</t>
-        </is>
-      </c>
+          <t>Octava</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
       <c r="F85" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>26/11/2002</t>
+          <t>30/01/2003</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=36313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4452,7 +4452,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Estación de Servicios Negrete.</t>
+          <t>Línea de Transmisión Mininco-Nacimiento (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4462,20 +4462,20 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Monrado Vyhmeister Butendieck</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>150</v>
+        <v>6000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>11/04/2002</t>
+          <t>26/11/2002</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5604&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=36313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Instalación Servicio de Agua Potable Rural Localidad de Rihue Comuna de Negrete.</t>
+          <t>Estación de Servicios Negrete.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4515,15 +4515,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Monrado Vyhmeister Butendieck</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>590</v>
+        <v>150</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>31/01/2002</t>
+          <t>11/04/2002</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5063&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5604&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4548,30 +4548,30 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Optimización Planta Pacífico PROPAC</t>
+          <t>Instalación Servicio de Agua Potable Rural Localidad de Rihue Comuna de Negrete.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>73000</v>
+        <v>590</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>02/04/2001</t>
+          <t>31/01/2002</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5063&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4596,30 +4596,30 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Construcción Escuela Particular Acumar de Coigue Comuna de Negrete</t>
+          <t>Optimización Planta Pacífico PROPAC</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Julio Acuña Fernández</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>120</v>
+        <v>73000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>20/02/2001</t>
+          <t>02/04/2001</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4629,7 +4629,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3697&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Construcción Escuela Particular Acumar de Coigue Comuna de Negrete</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4654,20 +4654,20 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Julio Acuña Fernández</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>2500</v>
+        <v>120</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>20/02/2001</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3697&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4692,12 +4692,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Oleoducto San Vicente-Temuco</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4707,15 +4707,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>47000</v>
+        <v>2500</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>19/05/1997</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4725,7 +4725,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=18&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4740,43 +4740,91 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
+          <t>Oleoducto San Vicente-Temuco</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>47000</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>19/05/1997</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=18&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Negrete</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F92" t="n">
+      <c r="F93" t="n">
         <v>850000</v>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr">
+      <c r="J93" t="inlineStr">
         <is>
           <t>Negrete</t>
         </is>

--- a/data/Negrete.xlsx
+++ b/data/Negrete.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>08/03/2022</t>
+          <t>14/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Negrete.xlsx
+++ b/data/Negrete.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Sector Avaria</t>
+          <t>Línea de Alta Tensión Rihue-Renaico</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Ruta Nahuelbuta S.A.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>300</v>
+        <v>5000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/03/2022</t>
+          <t>18/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155347956&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155668869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Pozo Gallegos</t>
+          <t>Extracción de Áridos Sector Avaria</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -491,11 +491,11 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>03/02/2022</t>
+          <t>14/03/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154861605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155347956&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Extracción de áridos Pozo Gallegos</t>
+          <t>Extracción de Áridos Pozo Gallegos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10/05/2021</t>
+          <t>03/02/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151709292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154861605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>14/09/2020</t>
+          <t>10/05/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148231091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151709292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Regularización Ambiental Planta de Granos</t>
+          <t>Extracción de áridos Pozo Gallegos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Collipulli Red Soil S.A</t>
+          <t>Sociedad Concesionaria Ruta Nahuelbuta S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>14/07/2020</t>
+          <t>14/09/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147380023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148231091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>26/06/2020</t>
+          <t>14/07/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147076969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147380023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Instalación de tres aerogeneradores en fundo Las Marías</t>
+          <t>Regularización Ambiental Planta de Granos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Windkraft Uno Chile SpA</t>
+          <t>Collipulli Red Soil S.A</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>21/11/2018</t>
+          <t>26/06/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141868869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147076969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,12 +760,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Parque Eólico Entre Ríos</t>
+          <t>Instalación de tres aerogeneradores en fundo Las Marías</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NR Entre Ríos SpA</t>
+          <t>Windkraft Uno Chile SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>497000</v>
+        <v>17000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>05/06/2018</t>
+          <t>21/11/2018</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139246650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141868869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,40 +808,40 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Parque Eólico Entre Ríos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>NR Entre Ríos SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9903</v>
+        <v>497000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>05/06/2018</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139246650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Eficiencias y mejoras operacionales Planta Pacífico</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CMPC Celulosa S.A</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>9903</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23/04/2018</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138982907&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Proyecto Eólico Coihue</t>
+          <t>Eficiencias y mejoras operacionales Planta Pacífico</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Parque Eólico Coihue SPA</t>
+          <t>CMPC Celulosa S.A</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>23/10/2017</t>
+          <t>23/04/2018</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132818524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138982907&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de Clorato de Sodio entre la región del Biobío y de la Araucanía</t>
+          <t>Proyecto Eólico Coihue</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,20 +962,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Comercial e Industrial Erco Chile Ltda.</t>
+          <t>Parque Eólico Coihue SPA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>03/11/2016</t>
+          <t>23/10/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131858199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132818524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque Eólico La Esperanza II</t>
+          <t>Transporte Ferroviario de Clorato de Sodio entre la región del Biobío y de la Araucanía</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,20 +1010,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Eólica La Esperanza S.A.</t>
+          <t>Comercial e Industrial Erco Chile Ltda.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>24/08/2016</t>
+          <t>03/11/2016</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131708431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131858199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Parque Eólico La Esperanza II</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,20 +1058,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Eólica La Esperanza S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>24/08/2016</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131708431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque Eólico Buenaventura</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,30 +1106,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Eólica La Esperanza S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>22/04/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131347850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Parque Eólico Rihue</t>
+          <t>Parque Eólico Buenaventura</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Eólica La Esperanza S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>290000</v>
+        <v>35000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20/11/2015</t>
+          <t>22/04/2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130924439&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131347850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Eólico La Esperanza</t>
+          <t>Parque Eólico Rihue</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Eólica La Esperanza S.A.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>25000</v>
+        <v>290000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>18/02/2015</t>
+          <t>20/11/2015</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130244371&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130924439&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Parque Eólico La Esperanza</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,20 +1250,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Eólica La Esperanza S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>25000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>18/02/2015</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130244371&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>6750</v>
+        <v>10</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1200</v>
+        <v>6750</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Parque Eólico La Flor</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sociedad Vientos de Renaico SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>54000</v>
+        <v>1200</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128951114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO NEGRETE</t>
+          <t>Parque Eólico La Flor</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,20 +1442,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>wpd Negrete SPA</t>
+          <t>Sociedad Vientos de Renaico SpA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>48000</v>
+        <v>54000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>19/12/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128951039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128951114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>PARQUE EÓLICO NEGRETE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>wpd Negrete SPA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>250</v>
+        <v>48000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>19/12/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128951039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>706</v>
+        <v>250</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>706</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1650</v>
+        <v>100</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1835,21 +1835,21 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Planta Recicladora de Baterías Vyhmeister</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Sociedad Vyhmeister y Cía Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>07/07/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5754806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Planta Recuperadora de Baterías - Vyhmeister</t>
+          <t>Planta Recicladora de Baterías Vyhmeister</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>07/07/2011</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5361261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5754806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>10/02/2011</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5342367&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5361261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Negrete</t>
+          <t>Planta Recuperadora de Baterías - Vyhmeister</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Negrete</t>
+          <t>Sociedad Vyhmeister y Cía Ltda.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>10/02/2011</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4918716&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5342367&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Modificación Plan Regulador Comunal de Negrete</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Ilustre Municipalidad de Negrete</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4918716&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1350</v>
+        <v>300</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Planta de Biogás a Partir de Purines del Centro Educacional Agroalimentario, Negrete (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Corporación Servicio Evangélico para el Desarrollo (SEPADE)</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>185</v>
+        <v>377</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>02/09/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4015845&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Planta de Biogás a Partir de Purines del Centro Educacional Agroalimentario, Negrete (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Corporación Servicio Evangélico para el Desarrollo (SEPADE)</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>02/09/2009</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4015845&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DIA Transporte Ferroviario de Petróleo desde Talcahuano hasta Mininco, Regiones del Bío Bío y La Araucanía (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>TRANSAP S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>15/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3789791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>22/04/2009</t>
+          <t>15/05/2009</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3716506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3789791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>DIA Transporte Ferroviario de Petróleo desde Talcahuano hasta Mininco, Regiones del Bío Bío y La Araucanía (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>TRANSAP S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>22/04/2009</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3716506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1650</v>
+        <v>300</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2607,17 +2607,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PLANTA PILOTO DE BIOGÁS PARA EL TRATAMIENTO DE PURINES DE ESTABLOS LECHEROS DEL LICEO AGRÍCOLA DE NEGRETE VIII REGIÓN DEL BIO-BIO CHILE (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,20 +2738,20 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Corporación Servicio Evangélico para el Desarrollo (SEPADE)</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>10/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2375626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>PLANTA PILOTO DE BIOGÁS PARA EL TRATAMIENTO DE PURINES DE ESTABLOS LECHEROS DEL LICEO AGRÍCOLA DE NEGRETE VIII REGIÓN DEL BIO-BIO CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,20 +2786,20 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Corporación Servicio Evangélico para el Desarrollo (SEPADE)</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>10/09/2007</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2375626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2895,17 +2895,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>26/02/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
+          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2991,17 +2991,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>14/02/2007</t>
+          <t>26/02/2007</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>14/02/2007</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3135,17 +3135,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Clorato de Sodio a las Plantas de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1422307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Clorato de Sodio a las Plantas de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1422307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3375,17 +3375,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3471,17 +3471,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento Aguas Servidas Negrete (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,20 +3554,20 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1152529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Planta de Tratamiento Aguas Servidas Negrete (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,20 +3602,20 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>3517</v>
+        <v>1350</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1152529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de Soda Cáustica desde Oxy-Chile en Talcahuano, hasta las Plantas Laja, Santa Fe y Pacífico de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>TRANSAP S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>30/09/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1044218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Optimización Operacional de Planta Pacífico, Mininco (e-seia)</t>
+          <t>Transporte Ferroviario de Soda Cáustica desde Oxy-Chile en Talcahuano, hasta las Plantas Laja, Santa Fe y Pacífico de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>TRANSAP S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>22/09/2005</t>
+          <t>30/09/2005</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1029995&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1044218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Optimización Operacional de Planta Pacífico, Mininco (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>22/09/2005</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1029995&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Áridos Río Biobío, Sector Fundo El Sauce (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,20 +3842,20 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Forestal Mininco SpA.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1285</v>
+        <v>200</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>08/08/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=962410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento Aguas Servidas Negrete (e-seia)</t>
+          <t>Extracción Mecanizada de Áridos Río Biobío, Sector Fundo El Sauce (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
+          <t>Forestal Mininco SpA.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>670</v>
+        <v>1285</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>29/06/2005</t>
+          <t>08/08/2005</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=905910&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=962410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Planta de Tratamiento Aguas Servidas Negrete (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>200</v>
+        <v>670</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>29/06/2005</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=905910&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4047,17 +4047,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>"Extracción y Plantas de Procesamiento de Áridos. Sector El Sauce. Octava Región". (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,20 +4178,20 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Forestal Mininco SpA.</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>29/04/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=338410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Planta Laminadora y Aserradero - Negrete (e-seia)</t>
+          <t>"Extracción y Plantas de Procesamiento de Áridos. Sector El Sauce. Octava Región". (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Borver Ltda.</t>
+          <t>Forestal Mininco SpA.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>22/01/2004</t>
+          <t>29/04/2004</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=254749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=338410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Abastecimiento de Gas Natural Sector Industrial Mininco (e-seia)</t>
+          <t>Planta Laminadora y Aserradero - Negrete (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,20 +4274,20 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Innergy Transportes S.A.</t>
+          <t>Borver Ltda.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>06/01/2004</t>
+          <t>22/01/2004</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=231576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=254749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Planta Laminadora y Aserradero - Negrete (e-seia)</t>
+          <t>Abastecimiento de Gas Natural Sector Industrial Mininco (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Borver Ltda.</t>
+          <t>Innergy Transportes S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>15/12/2003</t>
+          <t>06/01/2004</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=223076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=231576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Modificación al transporte de productos químicos entre Plantas Santa Fe y Laja (e-seia)</t>
+          <t>Planta Laminadora y Aserradero - Negrete (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Borver Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>14/05/2003</t>
+          <t>15/12/2003</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=223076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Construcción de Terminal de Buses Comuna de Negrete</t>
+          <t>Modificación al transporte de productos químicos entre Plantas Santa Fe y Laja (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,26 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Octava</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr"/>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>CMPC Pulp SpA</t>
+        </is>
+      </c>
       <c r="F85" t="n">
         <v>0</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>30/01/2003</t>
+          <t>14/05/2003</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4452,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Mininco-Nacimiento (e-seia)</t>
+          <t>Construcción de Terminal de Buses Comuna de Negrete</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4462,30 +4466,26 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>CMPC Pulp SpA</t>
-        </is>
-      </c>
+          <t>Octava</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
       <c r="F86" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>26/11/2002</t>
+          <t>30/01/2003</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=36313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Estación de Servicios Negrete.</t>
+          <t>Línea de Transmisión Mininco-Nacimiento (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4510,20 +4510,20 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Monrado Vyhmeister Butendieck</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>150</v>
+        <v>6000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>11/04/2002</t>
+          <t>26/11/2002</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5604&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=36313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Instalación Servicio de Agua Potable Rural Localidad de Rihue Comuna de Negrete.</t>
+          <t>Estación de Servicios Negrete.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4563,15 +4563,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Monrado Vyhmeister Butendieck</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>590</v>
+        <v>150</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>31/01/2002</t>
+          <t>11/04/2002</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5063&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5604&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4596,30 +4596,30 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Optimización Planta Pacífico PROPAC</t>
+          <t>Instalación Servicio de Agua Potable Rural Localidad de Rihue Comuna de Negrete.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>73000</v>
+        <v>590</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>02/04/2001</t>
+          <t>31/01/2002</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4629,7 +4629,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5063&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4644,30 +4644,30 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Construcción Escuela Particular Acumar de Coigue Comuna de Negrete</t>
+          <t>Optimización Planta Pacífico PROPAC</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Julio Acuña Fernández</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>120</v>
+        <v>73000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>20/02/2001</t>
+          <t>02/04/2001</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3697&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Construcción Escuela Particular Acumar de Coigue Comuna de Negrete</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4702,20 +4702,20 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Julio Acuña Fernández</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2500</v>
+        <v>120</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>20/02/2001</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4725,7 +4725,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3697&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4740,12 +4740,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Oleoducto San Vicente-Temuco</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4755,15 +4755,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>47000</v>
+        <v>2500</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>19/05/1997</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=18&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4788,43 +4788,91 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
+          <t>Oleoducto San Vicente-Temuco</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>47000</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>19/05/1997</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=18&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Negrete</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F93" t="n">
+      <c r="F94" t="n">
         <v>850000</v>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr">
+      <c r="J94" t="inlineStr">
         <is>
           <t>Negrete</t>
         </is>

--- a/data/Negrete.xlsx
+++ b/data/Negrete.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/04/2022</t>
+          <t>25/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Negrete.xlsx
+++ b/data/Negrete.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J94"/>
+  <dimension ref="A1:J95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión Rihue-Renaico</t>
+          <t>Nueva S/E Seccionadora Epuleufu y Nueva Línea 1x66 Kv Angol Epuleufu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>SOCIEDAD AUSTRAL DE TRANSMISION TRONCAL S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5000</v>
+        <v>23273</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>25/04/2022</t>
+          <t>15/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155668869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157122236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Sector Avaria</t>
+          <t>Línea de Alta Tensión Rihue-Renaico</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,20 +482,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Ruta Nahuelbuta S.A.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>300</v>
+        <v>5000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>14/03/2022</t>
+          <t>25/04/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155347956&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155668869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Pozo Gallegos</t>
+          <t>Extracción de Áridos Sector Avaria</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,11 +539,11 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>03/02/2022</t>
+          <t>14/03/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154861605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155347956&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Extracción de áridos Pozo Gallegos</t>
+          <t>Extracción de Áridos Pozo Gallegos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10/05/2021</t>
+          <t>03/02/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151709292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154861605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>14/09/2020</t>
+          <t>10/05/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148231091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151709292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Regularización Ambiental Planta de Granos</t>
+          <t>Extracción de áridos Pozo Gallegos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Collipulli Red Soil S.A</t>
+          <t>Sociedad Concesionaria Ruta Nahuelbuta S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>14/07/2020</t>
+          <t>14/09/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147380023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148231091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>26/06/2020</t>
+          <t>14/07/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147076969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147380023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Instalación de tres aerogeneradores en fundo Las Marías</t>
+          <t>Regularización Ambiental Planta de Granos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Windkraft Uno Chile SpA</t>
+          <t>Collipulli Red Soil S.A</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>21/11/2018</t>
+          <t>26/06/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141868869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147076969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Parque Eólico Entre Ríos</t>
+          <t>Instalación de tres aerogeneradores en fundo Las Marías</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NR Entre Ríos SpA</t>
+          <t>Windkraft Uno Chile SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>497000</v>
+        <v>17000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>05/06/2018</t>
+          <t>21/11/2018</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139246650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141868869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,40 +856,40 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Parque Eólico Entre Ríos</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>NR Entre Ríos SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>9903</v>
+        <v>497000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>05/06/2018</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139246650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Eficiencias y mejoras operacionales Planta Pacífico</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CMPC Celulosa S.A</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>9903</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>23/04/2018</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138982907&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Proyecto Eólico Coihue</t>
+          <t>Eficiencias y mejoras operacionales Planta Pacífico</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Parque Eólico Coihue SPA</t>
+          <t>CMPC Celulosa S.A</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>23/10/2017</t>
+          <t>23/04/2018</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132818524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138982907&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de Clorato de Sodio entre la región del Biobío y de la Araucanía</t>
+          <t>Proyecto Eólico Coihue</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,20 +1010,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Comercial e Industrial Erco Chile Ltda.</t>
+          <t>Parque Eólico Coihue SPA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>03/11/2016</t>
+          <t>23/10/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131858199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132818524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque Eólico La Esperanza II</t>
+          <t>Transporte Ferroviario de Clorato de Sodio entre la región del Biobío y de la Araucanía</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,20 +1058,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Eólica La Esperanza S.A.</t>
+          <t>Comercial e Industrial Erco Chile Ltda.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>24/08/2016</t>
+          <t>03/11/2016</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131708431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131858199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Parque Eólico La Esperanza II</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,20 +1106,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Eólica La Esperanza S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>24/08/2016</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131708431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Parque Eólico Buenaventura</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,30 +1154,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Eólica La Esperanza S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>22/04/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131347850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Eólico Rihue</t>
+          <t>Parque Eólico Buenaventura</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Eólica La Esperanza S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>290000</v>
+        <v>35000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20/11/2015</t>
+          <t>22/04/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130924439&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131347850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque Eólico La Esperanza</t>
+          <t>Parque Eólico Rihue</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Eólica La Esperanza S.A.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>25000</v>
+        <v>290000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>18/02/2015</t>
+          <t>20/11/2015</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130244371&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130924439&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Parque Eólico La Esperanza</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,20 +1298,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Eólica La Esperanza S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>25000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>18/02/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130244371&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>6750</v>
+        <v>10</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1200</v>
+        <v>6750</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Parque Eólico La Flor</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sociedad Vientos de Renaico SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>54000</v>
+        <v>1200</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128951114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO NEGRETE</t>
+          <t>Parque Eólico La Flor</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,20 +1490,20 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>wpd Negrete SPA</t>
+          <t>Sociedad Vientos de Renaico SpA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>48000</v>
+        <v>54000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>19/12/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128951039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128951114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>PARQUE EÓLICO NEGRETE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>wpd Negrete SPA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>250</v>
+        <v>48000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>19/12/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128951039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>706</v>
+        <v>250</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>706</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1650</v>
+        <v>100</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1883,21 +1883,21 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Planta Recicladora de Baterías Vyhmeister</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Sociedad Vyhmeister y Cía Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>07/07/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5754806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Planta Recuperadora de Baterías - Vyhmeister</t>
+          <t>Planta Recicladora de Baterías Vyhmeister</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>07/07/2011</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5361261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5754806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>10/02/2011</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5342367&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5361261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Negrete</t>
+          <t>Planta Recuperadora de Baterías - Vyhmeister</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Negrete</t>
+          <t>Sociedad Vyhmeister y Cía Ltda.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>10/02/2011</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4918716&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5342367&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Modificación Plan Regulador Comunal de Negrete</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Ilustre Municipalidad de Negrete</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4918716&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1350</v>
+        <v>300</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Planta de Biogás a Partir de Purines del Centro Educacional Agroalimentario, Negrete (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Corporación Servicio Evangélico para el Desarrollo (SEPADE)</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>185</v>
+        <v>377</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>02/09/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4015845&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Planta de Biogás a Partir de Purines del Centro Educacional Agroalimentario, Negrete (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Corporación Servicio Evangélico para el Desarrollo (SEPADE)</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>02/09/2009</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4015845&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DIA Transporte Ferroviario de Petróleo desde Talcahuano hasta Mininco, Regiones del Bío Bío y La Araucanía (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>TRANSAP S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>15/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3789791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>22/04/2009</t>
+          <t>15/05/2009</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3716506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3789791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>DIA Transporte Ferroviario de Petróleo desde Talcahuano hasta Mininco, Regiones del Bío Bío y La Araucanía (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>TRANSAP S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>22/04/2009</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3716506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1650</v>
+        <v>300</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2655,17 +2655,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PLANTA PILOTO DE BIOGÁS PARA EL TRATAMIENTO DE PURINES DE ESTABLOS LECHEROS DEL LICEO AGRÍCOLA DE NEGRETE VIII REGIÓN DEL BIO-BIO CHILE (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,20 +2786,20 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Corporación Servicio Evangélico para el Desarrollo (SEPADE)</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>10/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2375626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>PLANTA PILOTO DE BIOGÁS PARA EL TRATAMIENTO DE PURINES DE ESTABLOS LECHEROS DEL LICEO AGRÍCOLA DE NEGRETE VIII REGIÓN DEL BIO-BIO CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,20 +2834,20 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Corporación Servicio Evangélico para el Desarrollo (SEPADE)</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>10/09/2007</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2375626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2943,17 +2943,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>26/02/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
+          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3039,17 +3039,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>14/02/2007</t>
+          <t>26/02/2007</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>14/02/2007</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3183,17 +3183,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Clorato de Sodio a las Plantas de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1422307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Clorato de Sodio a las Plantas de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1422307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3519,17 +3519,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento Aguas Servidas Negrete (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,20 +3602,20 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1152529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Planta de Tratamiento Aguas Servidas Negrete (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,20 +3650,20 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>3517</v>
+        <v>1350</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1152529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de Soda Cáustica desde Oxy-Chile en Talcahuano, hasta las Plantas Laja, Santa Fe y Pacífico de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>TRANSAP S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>30/09/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1044218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Optimización Operacional de Planta Pacífico, Mininco (e-seia)</t>
+          <t>Transporte Ferroviario de Soda Cáustica desde Oxy-Chile en Talcahuano, hasta las Plantas Laja, Santa Fe y Pacífico de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>TRANSAP S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>22/09/2005</t>
+          <t>30/09/2005</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1029995&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1044218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Optimización Operacional de Planta Pacífico, Mininco (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>22/09/2005</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1029995&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Áridos Río Biobío, Sector Fundo El Sauce (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,20 +3890,20 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Forestal Mininco SpA.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1285</v>
+        <v>200</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>08/08/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=962410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento Aguas Servidas Negrete (e-seia)</t>
+          <t>Extracción Mecanizada de Áridos Río Biobío, Sector Fundo El Sauce (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
+          <t>Forestal Mininco SpA.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>670</v>
+        <v>1285</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>29/06/2005</t>
+          <t>08/08/2005</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=905910&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=962410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Planta de Tratamiento Aguas Servidas Negrete (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>200</v>
+        <v>670</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>29/06/2005</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=905910&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4095,17 +4095,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>"Extracción y Plantas de Procesamiento de Áridos. Sector El Sauce. Octava Región". (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,20 +4226,20 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Forestal Mininco SpA.</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>29/04/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=338410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Planta Laminadora y Aserradero - Negrete (e-seia)</t>
+          <t>"Extracción y Plantas de Procesamiento de Áridos. Sector El Sauce. Octava Región". (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Borver Ltda.</t>
+          <t>Forestal Mininco SpA.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>22/01/2004</t>
+          <t>29/04/2004</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=254749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=338410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Abastecimiento de Gas Natural Sector Industrial Mininco (e-seia)</t>
+          <t>Planta Laminadora y Aserradero - Negrete (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,20 +4322,20 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Innergy Transportes S.A.</t>
+          <t>Borver Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>06/01/2004</t>
+          <t>22/01/2004</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=231576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=254749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Planta Laminadora y Aserradero - Negrete (e-seia)</t>
+          <t>Abastecimiento de Gas Natural Sector Industrial Mininco (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Borver Ltda.</t>
+          <t>Innergy Transportes S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>15/12/2003</t>
+          <t>06/01/2004</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=223076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=231576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Modificación al transporte de productos químicos entre Plantas Santa Fe y Laja (e-seia)</t>
+          <t>Planta Laminadora y Aserradero - Negrete (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Borver Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>14/05/2003</t>
+          <t>15/12/2003</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=223076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Construcción de Terminal de Buses Comuna de Negrete</t>
+          <t>Modificación al transporte de productos químicos entre Plantas Santa Fe y Laja (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,26 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Octava</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr"/>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>CMPC Pulp SpA</t>
+        </is>
+      </c>
       <c r="F86" t="n">
         <v>0</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>30/01/2003</t>
+          <t>14/05/2003</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4500,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Mininco-Nacimiento (e-seia)</t>
+          <t>Construcción de Terminal de Buses Comuna de Negrete</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4510,30 +4514,26 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>CMPC Pulp SpA</t>
-        </is>
-      </c>
+          <t>Octava</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
       <c r="F87" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>26/11/2002</t>
+          <t>30/01/2003</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=36313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Estación de Servicios Negrete.</t>
+          <t>Línea de Transmisión Mininco-Nacimiento (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4558,20 +4558,20 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Monrado Vyhmeister Butendieck</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>150</v>
+        <v>6000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>11/04/2002</t>
+          <t>26/11/2002</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5604&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=36313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Instalación Servicio de Agua Potable Rural Localidad de Rihue Comuna de Negrete.</t>
+          <t>Estación de Servicios Negrete.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4611,15 +4611,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Monrado Vyhmeister Butendieck</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>590</v>
+        <v>150</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>31/01/2002</t>
+          <t>11/04/2002</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4629,7 +4629,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5063&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5604&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4644,30 +4644,30 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Optimización Planta Pacífico PROPAC</t>
+          <t>Instalación Servicio de Agua Potable Rural Localidad de Rihue Comuna de Negrete.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>73000</v>
+        <v>590</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>02/04/2001</t>
+          <t>31/01/2002</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5063&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4692,30 +4692,30 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Construcción Escuela Particular Acumar de Coigue Comuna de Negrete</t>
+          <t>Optimización Planta Pacífico PROPAC</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Julio Acuña Fernández</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>120</v>
+        <v>73000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>20/02/2001</t>
+          <t>02/04/2001</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4725,7 +4725,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3697&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4740,7 +4740,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Construcción Escuela Particular Acumar de Coigue Comuna de Negrete</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4750,20 +4750,20 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Julio Acuña Fernández</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2500</v>
+        <v>120</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>20/02/2001</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3697&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4788,12 +4788,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Oleoducto San Vicente-Temuco</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4803,15 +4803,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>47000</v>
+        <v>2500</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>19/05/1997</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=18&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4836,43 +4836,91 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
+          <t>Oleoducto San Vicente-Temuco</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>47000</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>19/05/1997</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=18&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Negrete</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F94" t="n">
+      <c r="F95" t="n">
         <v>850000</v>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr">
+      <c r="J95" t="inlineStr">
         <is>
           <t>Negrete</t>
         </is>

--- a/data/Negrete.xlsx
+++ b/data/Negrete.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/09/2022</t>
+          <t>23/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Negrete.xlsx
+++ b/data/Negrete.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/Negrete.xlsx
+++ b/data/Negrete.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Negrete.xlsx
+++ b/data/Negrete.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Negrete.xlsx
+++ b/data/Negrete.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J95"/>
+  <dimension ref="A1:J96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nueva S/E Seccionadora Epuleufu y Nueva Línea 1x66 Kv Angol Epuleufu</t>
+          <t>Parque Eólico Fénix</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SOCIEDAD AUSTRAL DE TRANSMISION TRONCAL S.A.</t>
+          <t>Parque Eólico Maqui SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>23273</v>
+        <v>110</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/09/2022</t>
+          <t>04/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157122236&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159999133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión Rihue-Renaico</t>
+          <t>Nueva S/E Seccionadora Epuleufu y Nueva Línea 1x66 Kv Angol Epuleufu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>SOCIEDAD AUSTRAL DE TRANSMISION TRONCAL S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5000</v>
+        <v>23273</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>25/04/2022</t>
+          <t>23/09/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155668869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157122236&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Sector Avaria</t>
+          <t>Línea de Alta Tensión Rihue-Renaico</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,30 +530,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Ruta Nahuelbuta S.A.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>300</v>
+        <v>5000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>14/03/2022</t>
+          <t>25/04/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155347956&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155668869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Pozo Gallegos</t>
+          <t>Extracción de Áridos Sector Avaria</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,11 +587,11 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>03/02/2022</t>
+          <t>14/03/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154861605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155347956&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Extracción de áridos Pozo Gallegos</t>
+          <t>Extracción de Áridos Pozo Gallegos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>10/05/2021</t>
+          <t>03/02/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151709292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154861605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>14/09/2020</t>
+          <t>10/05/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148231091&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151709292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Regularización Ambiental Planta de Granos</t>
+          <t>Extracción de áridos Pozo Gallegos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Collipulli Red Soil S.A</t>
+          <t>Sociedad Concesionaria Ruta Nahuelbuta S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>12000</v>
+        <v>2500</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>14/07/2020</t>
+          <t>14/09/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147380023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148231091&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>26/06/2020</t>
+          <t>14/07/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147076969&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147380023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Instalación de tres aerogeneradores en fundo Las Marías</t>
+          <t>Regularización Ambiental Planta de Granos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Windkraft Uno Chile SpA</t>
+          <t>Collipulli Red Soil S.A</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>21/11/2018</t>
+          <t>26/06/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141868869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147076969&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,12 +856,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Parque Eólico Entre Ríos</t>
+          <t>Instalación de tres aerogeneradores en fundo Las Marías</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NR Entre Ríos SpA</t>
+          <t>Windkraft Uno Chile SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>497000</v>
+        <v>17000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>05/06/2018</t>
+          <t>21/11/2018</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139246650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141868869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,40 +904,40 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Parque Eólico Entre Ríos</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>NR Entre Ríos SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>9903</v>
+        <v>497000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>05/06/2018</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139246650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Eficiencias y mejoras operacionales Planta Pacífico</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CMPC Celulosa S.A</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>9903</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>23/04/2018</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138982907&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Proyecto Eólico Coihue</t>
+          <t>Eficiencias y mejoras operacionales Planta Pacífico</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Parque Eólico Coihue SPA</t>
+          <t>CMPC Celulosa S.A</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>23/10/2017</t>
+          <t>23/04/2018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132818524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138982907&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de Clorato de Sodio entre la región del Biobío y de la Araucanía</t>
+          <t>Proyecto Eólico Coihue</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,20 +1058,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Comercial e Industrial Erco Chile Ltda.</t>
+          <t>Parque Eólico Coihue SPA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>03/11/2016</t>
+          <t>23/10/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131858199&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132818524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque Eólico La Esperanza II</t>
+          <t>Transporte Ferroviario de Clorato de Sodio entre la región del Biobío y de la Araucanía</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,20 +1106,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Eólica La Esperanza S.A.</t>
+          <t>Comercial e Industrial Erco Chile Ltda.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>24/08/2016</t>
+          <t>03/11/2016</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131708431&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131858199&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Parque Eólico La Esperanza II</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,20 +1154,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Eólica La Esperanza S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>24/08/2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131708431&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Eólico Buenaventura</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Eólica La Esperanza S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>35000</v>
+        <v>10000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>22/04/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131347850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque Eólico Rihue</t>
+          <t>Parque Eólico Buenaventura</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Enel Green Power Chile S.A.</t>
+          <t>Eólica La Esperanza S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>290000</v>
+        <v>35000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20/11/2015</t>
+          <t>22/04/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130924439&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131347850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Parque Eólico La Esperanza</t>
+          <t>Parque Eólico Rihue</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Eólica La Esperanza S.A.</t>
+          <t>Enel Green Power Chile S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>25000</v>
+        <v>290000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>18/02/2015</t>
+          <t>20/11/2015</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130244371&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130924439&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Parque Eólico La Esperanza</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,20 +1346,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Eólica La Esperanza S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>25000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>18/02/2015</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130244371&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>6750</v>
+        <v>10</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1200</v>
+        <v>6750</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Parque Eólico La Flor</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sociedad Vientos de Renaico SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>54000</v>
+        <v>1200</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128951114&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO NEGRETE</t>
+          <t>Parque Eólico La Flor</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,20 +1538,20 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>wpd Negrete SPA</t>
+          <t>Sociedad Vientos de Renaico SpA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>48000</v>
+        <v>54000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>19/12/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128951039&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128951114&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>PARQUE EÓLICO NEGRETE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>wpd Negrete SPA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>250</v>
+        <v>48000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>19/12/2013</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128951039&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>706</v>
+        <v>250</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1695,17 +1695,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>706</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1650</v>
+        <v>100</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1931,21 +1931,21 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Planta Recicladora de Baterías Vyhmeister</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sociedad Vyhmeister y Cía Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>07/07/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5754806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Planta Recuperadora de Baterías - Vyhmeister</t>
+          <t>Planta Recicladora de Baterías Vyhmeister</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>07/07/2011</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5361261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5754806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>10/02/2011</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5342367&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5361261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Negrete</t>
+          <t>Planta Recuperadora de Baterías - Vyhmeister</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Negrete</t>
+          <t>Sociedad Vyhmeister y Cía Ltda.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>10/02/2011</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4918716&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5342367&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Modificación Plan Regulador Comunal de Negrete</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Ilustre Municipalidad de Negrete</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4918716&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1350</v>
+        <v>300</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Planta de Biogás a Partir de Purines del Centro Educacional Agroalimentario, Negrete (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Corporación Servicio Evangélico para el Desarrollo (SEPADE)</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>185</v>
+        <v>377</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>02/09/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4015845&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Planta de Biogás a Partir de Purines del Centro Educacional Agroalimentario, Negrete (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Corporación Servicio Evangélico para el Desarrollo (SEPADE)</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>02/09/2009</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4015845&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DIA Transporte Ferroviario de Petróleo desde Talcahuano hasta Mininco, Regiones del Bío Bío y La Araucanía (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>TRANSAP S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>15/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3789791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2559,17 +2559,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>22/04/2009</t>
+          <t>15/05/2009</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3716506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3789791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>DIA Transporte Ferroviario de Petróleo desde Talcahuano hasta Mininco, Regiones del Bío Bío y La Araucanía (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>TRANSAP S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>22/04/2009</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3716506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1650</v>
+        <v>300</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2703,17 +2703,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PLANTA PILOTO DE BIOGÁS PARA EL TRATAMIENTO DE PURINES DE ESTABLOS LECHEROS DEL LICEO AGRÍCOLA DE NEGRETE VIII REGIÓN DEL BIO-BIO CHILE (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,20 +2834,20 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Corporación Servicio Evangélico para el Desarrollo (SEPADE)</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>10/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2375626&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>PLANTA PILOTO DE BIOGÁS PARA EL TRATAMIENTO DE PURINES DE ESTABLOS LECHEROS DEL LICEO AGRÍCOLA DE NEGRETE VIII REGIÓN DEL BIO-BIO CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,20 +2882,20 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Corporación Servicio Evangélico para el Desarrollo (SEPADE)</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>10/09/2007</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2375626&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2991,17 +2991,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>26/02/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
+          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3087,17 +3087,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>14/02/2007</t>
+          <t>26/02/2007</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>14/02/2007</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3231,17 +3231,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Clorato de Sodio a las Plantas de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>28/04/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1422307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Clorato de Sodio a las Plantas de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>28/04/2006</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1422307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3471,17 +3471,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3567,17 +3567,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento Aguas Servidas Negrete (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,20 +3650,20 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1152529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Planta de Tratamiento Aguas Servidas Negrete (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,20 +3698,20 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>3517</v>
+        <v>1350</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1152529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de Soda Cáustica desde Oxy-Chile en Talcahuano, hasta las Plantas Laja, Santa Fe y Pacífico de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>TRANSAP S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>30/09/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1044218&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Optimización Operacional de Planta Pacífico, Mininco (e-seia)</t>
+          <t>Transporte Ferroviario de Soda Cáustica desde Oxy-Chile en Talcahuano, hasta las Plantas Laja, Santa Fe y Pacífico de CMPC Celulosa en las Regiones VIII y IX (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>TRANSAP S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>22/09/2005</t>
+          <t>30/09/2005</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1029995&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1044218&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Optimización Operacional de Planta Pacífico, Mininco (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>22/09/2005</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1029995&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Áridos Río Biobío, Sector Fundo El Sauce (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,20 +3938,20 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Forestal Mininco SpA.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1285</v>
+        <v>200</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>08/08/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=962410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento Aguas Servidas Negrete (e-seia)</t>
+          <t>Extracción Mecanizada de Áridos Río Biobío, Sector Fundo El Sauce (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
+          <t>Forestal Mininco SpA.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>670</v>
+        <v>1285</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>29/06/2005</t>
+          <t>08/08/2005</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=905910&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=962410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Planta de Tratamiento Aguas Servidas Negrete (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>200</v>
+        <v>670</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>29/06/2005</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=905910&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4143,17 +4143,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>"Extracción y Plantas de Procesamiento de Áridos. Sector El Sauce. Octava Región". (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,20 +4274,20 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Forestal Mininco SpA.</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>29/04/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=338410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Planta Laminadora y Aserradero - Negrete (e-seia)</t>
+          <t>"Extracción y Plantas de Procesamiento de Áridos. Sector El Sauce. Octava Región". (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Borver Ltda.</t>
+          <t>Forestal Mininco SpA.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>22/01/2004</t>
+          <t>29/04/2004</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=254749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=338410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Abastecimiento de Gas Natural Sector Industrial Mininco (e-seia)</t>
+          <t>Planta Laminadora y Aserradero - Negrete (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,20 +4370,20 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Innergy Transportes S.A.</t>
+          <t>Borver Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>06/01/2004</t>
+          <t>22/01/2004</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=231576&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=254749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Planta Laminadora y Aserradero - Negrete (e-seia)</t>
+          <t>Abastecimiento de Gas Natural Sector Industrial Mininco (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Borver Ltda.</t>
+          <t>Innergy Transportes S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>15/12/2003</t>
+          <t>06/01/2004</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=223076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=231576&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Modificación al transporte de productos químicos entre Plantas Santa Fe y Laja (e-seia)</t>
+          <t>Planta Laminadora y Aserradero - Negrete (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>Borver Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>14/05/2003</t>
+          <t>15/12/2003</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=223076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Construcción de Terminal de Buses Comuna de Negrete</t>
+          <t>Modificación al transporte de productos químicos entre Plantas Santa Fe y Laja (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,26 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Octava</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr"/>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>CMPC Pulp SpA</t>
+        </is>
+      </c>
       <c r="F87" t="n">
         <v>0</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>30/01/2003</t>
+          <t>14/05/2003</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=77228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4548,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Mininco-Nacimiento (e-seia)</t>
+          <t>Construcción de Terminal de Buses Comuna de Negrete</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4558,30 +4562,26 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>CMPC Pulp SpA</t>
-        </is>
-      </c>
+          <t>Octava</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
       <c r="F88" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>26/11/2002</t>
+          <t>30/01/2003</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=36313&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Estación de Servicios Negrete.</t>
+          <t>Línea de Transmisión Mininco-Nacimiento (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4606,20 +4606,20 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Monrado Vyhmeister Butendieck</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>150</v>
+        <v>6000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>11/04/2002</t>
+          <t>26/11/2002</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4629,7 +4629,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5604&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=36313&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Instalación Servicio de Agua Potable Rural Localidad de Rihue Comuna de Negrete.</t>
+          <t>Estación de Servicios Negrete.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4659,15 +4659,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Monrado Vyhmeister Butendieck</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>590</v>
+        <v>150</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>31/01/2002</t>
+          <t>11/04/2002</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5063&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5604&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4692,30 +4692,30 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Optimización Planta Pacífico PROPAC</t>
+          <t>Instalación Servicio de Agua Potable Rural Localidad de Rihue Comuna de Negrete.</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>CMPC Pulp SpA</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>73000</v>
+        <v>590</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>02/04/2001</t>
+          <t>31/01/2002</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4725,7 +4725,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3778&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5063&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4740,30 +4740,30 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Construcción Escuela Particular Acumar de Coigue Comuna de Negrete</t>
+          <t>Optimización Planta Pacífico PROPAC</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Julio Acuña Fernández</t>
+          <t>CMPC Pulp SpA</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>120</v>
+        <v>73000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>20/02/2001</t>
+          <t>02/04/2001</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3697&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3778&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4788,7 +4788,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Construcción Escuela Particular Acumar de Coigue Comuna de Negrete</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4798,20 +4798,20 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Julio Acuña Fernández</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>2500</v>
+        <v>120</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>20/02/2001</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3697&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4836,12 +4836,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Oleoducto San Vicente-Temuco</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4851,15 +4851,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Sociedad Nacional de Oleoductos S.A.</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>47000</v>
+        <v>2500</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>19/05/1997</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4869,7 +4869,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=18&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4884,43 +4884,91 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
+          <t>Oleoducto San Vicente-Temuco</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>EIA</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Sociedad Nacional de Oleoductos S.A.</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>47000</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>19/05/1997</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=18&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Negrete</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F95" t="n">
+      <c r="F96" t="n">
         <v>850000</v>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J95" t="inlineStr">
+      <c r="J96" t="inlineStr">
         <is>
           <t>Negrete</t>
         </is>

--- a/data/Negrete.xlsx
+++ b/data/Negrete.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>04/10/2023</t>
+          <t>12/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Negrete.xlsx
+++ b/data/Negrete.xlsx
@@ -443,7 +443,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>110</v>
+        <v>110000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
